--- a/res/voc/sport.xlsx
+++ b/res/voc/sport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
   <si>
     <t/>
   </si>
@@ -32,6 +32,90 @@
     <t>imgPath</t>
   </si>
   <si>
+    <t>surfing</t>
+  </si>
+  <si>
+    <t>lướt sóng</t>
+  </si>
+  <si>
+    <t>shooting</t>
+  </si>
+  <si>
+    <t>bắn súng</t>
+  </si>
+  <si>
+    <t>riding</t>
+  </si>
+  <si>
+    <t>môn cưỡi ngựa</t>
+  </si>
+  <si>
+    <t>ice skating</t>
+  </si>
+  <si>
+    <t>môn trượt băng nghệ thuật</t>
+  </si>
+  <si>
+    <t>snooker</t>
+  </si>
+  <si>
+    <t>Bi-a</t>
+  </si>
+  <si>
+    <t>swimming</t>
+  </si>
+  <si>
+    <t>bơi lội</t>
+  </si>
+  <si>
+    <t>windsurfing</t>
+  </si>
+  <si>
+    <t>lướt ván buồm</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>bóng rổ</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>gôn</t>
+  </si>
+  <si>
+    <t>diving</t>
+  </si>
+  <si>
+    <t>lặn</t>
+  </si>
+  <si>
+    <t>scuba diving</t>
+  </si>
+  <si>
+    <t>môn lặn (có bình dưỡng khí)</t>
+  </si>
+  <si>
+    <t>ping-pong</t>
+  </si>
+  <si>
+    <t>môn bóng bàn</t>
+  </si>
+  <si>
+    <t>climbing</t>
+  </si>
+  <si>
+    <t>leo núi</t>
+  </si>
+  <si>
+    <t>hockey</t>
+  </si>
+  <si>
+    <t>khúc côn cầu</t>
+  </si>
+  <si>
     <t>skiing</t>
   </si>
   <si>
@@ -44,10 +128,10 @@
     <t>cờ vua</t>
   </si>
   <si>
-    <t>surfing</t>
-  </si>
-  <si>
-    <t>lướt sóng</t>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>câu cá</t>
   </si>
   <si>
     <t>badminton</t>
@@ -56,40 +140,34 @@
     <t>cầu lông</t>
   </si>
   <si>
+    <t>gymnastics</t>
+  </si>
+  <si>
+    <t>môn thể dục dụng cụ</t>
+  </si>
+  <si>
     <t>football</t>
   </si>
   <si>
     <t>bóng đá</t>
   </si>
   <si>
-    <t>snooker</t>
-  </si>
-  <si>
-    <t>Bi-a</t>
-  </si>
-  <si>
     <t>tennis</t>
   </si>
   <si>
     <t>quần vợt</t>
   </si>
   <si>
-    <t>swimming</t>
-  </si>
-  <si>
-    <t>bơi lội</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t>bóng rổ</t>
-  </si>
-  <si>
-    <t>golf</t>
-  </si>
-  <si>
-    <t>gôn</t>
+    <t>weightlifting</t>
+  </si>
+  <si>
+    <t>cử tạ</t>
+  </si>
+  <si>
+    <t>handball</t>
+  </si>
+  <si>
+    <t>bóng ném</t>
   </si>
   <si>
     <t>boxing</t>
@@ -102,6 +180,24 @@
   </si>
   <si>
     <t>bóng chuyền</t>
+  </si>
+  <si>
+    <t>baseball</t>
+  </si>
+  <si>
+    <t>môn bóng chày</t>
+  </si>
+  <si>
+    <t>sailing</t>
+  </si>
+  <si>
+    <t>chèo thuyền</t>
+  </si>
+  <si>
+    <t>archery</t>
+  </si>
+  <si>
+    <t>bắn cung</t>
   </si>
 </sst>
 </file>
@@ -157,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -302,7 +398,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -347,6 +443,230 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="true">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="true">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="true">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="true">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="true">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="true">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="true">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="true">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="true">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="true">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="true">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="true">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="true">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="true">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>0</v>
       </c>
     </row>
